--- a/biology/Zoologie/Aires_importantes_pour_les_mammifères_marins/Aires_importantes_pour_les_mammifères_marins.xlsx
+++ b/biology/Zoologie/Aires_importantes_pour_les_mammifères_marins/Aires_importantes_pour_les_mammifères_marins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aires_importantes_pour_les_mammif%C3%A8res_marins</t>
+          <t>Aires_importantes_pour_les_mammifères_marins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les aires importantes pour les mammifères marins (Important Marine Mammal Areas) sont des portions d'habitats marins ayant une importance particulière pour une ou plusieurs espèces de mammifères marins qui ont le potentiel d'être définie et gérée en tant que zone de conservation[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les aires importantes pour les mammifères marins (Important Marine Mammal Areas) sont des portions d'habitats marins ayant une importance particulière pour une ou plusieurs espèces de mammifères marins qui ont le potentiel d'être définie et gérée en tant que zone de conservation.
 </t>
         </is>
       </c>
